--- a/xlsx/馬達加斯加_intext.xlsx
+++ b/xlsx/馬達加斯加_intext.xlsx
@@ -29,7 +29,7 @@
     <t>馬達加斯加 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_馬達加斯加</t>
+    <t>体育运动_体育运动_南非_馬達加斯加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0%E5%9B%BD%E6%97%97</t>
